--- a/output/xlsx/UC006 - Registrar Empenho--GT-.xlsx
+++ b/output/xlsx/UC006 - Registrar Empenho--GT-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Suite Type:</t>

--- a/output/xlsx/UC006 - Registrar Empenho--GT-.xlsx
+++ b/output/xlsx/UC006 - Registrar Empenho--GT-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O sistema identifica a solicitação a ser empenhada (recebida por parâmetro). O Sistema exibe os dados da solicitação para o usuário.</t>
+    <t>O sistema identifica a solicitação a ser empenhada (recebida por parâmetro). O sistema exibe os dados da solicitação para o usuário.</t>
   </si>
   <si>
     <t>#</t>
@@ -119,7 +119,7 @@
     <t>TC3</t>
   </si>
   <si>
-    <t>SYSTEM Verifica que já existe um número de empenho (considerando também o mesmo exercício) registrado na base de dados; e Exibe mensagem de erro (MSG209 - Número do empenho já existe.) para o usuário.</t>
+    <t>SYSTEM Verifica que já existe um número de empenho (considerando também o mesmo exercício) registrado na base de dados; e Exibe mensagem de erro (MSG209 - Número do empenho já existe) para o usuário.</t>
   </si>
 </sst>
 </file>
